--- a/Bug_Report_Volvo Eicher Claim 13feb_latest.xlsx
+++ b/Bug_Report_Volvo Eicher Claim 13feb_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A68B937-6951-41C2-BE2A-B1776F883E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE211ED-8AF8-4D40-B707-5712919AC11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="15360" windowHeight="11070" xr2:uid="{71BF4958-A961-4E76-9BC7-C17C2F64A229}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="243">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -1414,6 +1414,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Alok Srivastava</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1679,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1773,10 +1776,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1794,29 +1809,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2137,7 +2143,7 @@
   <dimension ref="D8:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:I11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,23 +2152,23 @@
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="35" t="s">
@@ -2228,6 +2234,7 @@
     <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2235,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBD0D03-4052-434A-81DB-12104B29E3C9}">
   <dimension ref="A1:PY54"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C53" sqref="A1:P54"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,45 +2266,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:441" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:441" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="41"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2" s="45"/>
       <c r="L2" s="4"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -2305,25 +2312,25 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:441" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41">
+      <c r="I3" s="44"/>
+      <c r="J3" s="45">
         <v>10008</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="4"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -20802,8 +20809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CF07D1-DB9D-46E0-8F35-4E41CC253122}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20820,15 +20827,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -20837,15 +20844,15 @@
       <c r="A2" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="23" t="s">
         <v>182</v>
       </c>
@@ -20860,20 +20867,20 @@
       <c r="A3" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="51">
         <v>43875</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>23</v>
+      <c r="H3" s="36" t="s">
+        <v>242</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -20888,10 +20895,10 @@
       <c r="D4" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="23" t="s">
         <v>190</v>
       </c>
